--- a/InputData/web-app/BpTPEU/BTU per Total Primary Energy Unit.xlsx
+++ b/InputData/web-app/BpTPEU/BTU per Total Primary Energy Unit.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\web-app\BpTPEU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\Projects\2 - Ad Hoc\EPS\eps-us-2.1.0\InputData\web-app\BpTPEU\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74672DF1-A86A-4CE1-A4FA-6819B057DE77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="14100"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BpTPEU-large" sheetId="2" r:id="rId2"/>
     <sheet name="BpTPEU-small" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Source:</t>
   </si>
@@ -44,22 +53,25 @@
     <t>small primary energy output unit</t>
   </si>
   <si>
-    <t>The large primary energy output unit (used in totals graphs) is: quadrillion BTU</t>
-  </si>
-  <si>
-    <t>The small primary energy output unit (used in energy intensity per unit GDP graphs) is: thousand BTU</t>
-  </si>
-  <si>
     <t>BpTPEU BTU per Large Primary Energy Unit</t>
   </si>
   <si>
     <t>BpTPEU BTU per Small Primary Energy Unit</t>
+  </si>
+  <si>
+    <t>The large primary energy output unit (used in totals graphs) is: Mtoe - Million tonnes of oil equivalent - 10^6 toe</t>
+  </si>
+  <si>
+    <t>1 Btu = 2.5219021687207⋅10-8 toe</t>
+  </si>
+  <si>
+    <t>The small primary energy output unit (used in energy intensity per unit GDP graphs) is: Ktoe - 1000 tonnes of oil equivalent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,7 +119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -123,7 +135,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -198,6 +210,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -233,6 +262,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -408,24 +454,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,27 +484,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -463,37 +519,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <f>10^15</f>
-        <v>1000000000000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <f>39652608749183</f>
+        <v>39652608749183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
     </row>
   </sheetData>
@@ -502,37 +560,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <f>10^3</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <f>39652608749.183</f>
+        <v>39652608749.182999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
     </row>
   </sheetData>

--- a/InputData/web-app/BpTPEU/BTU per Total Primary Energy Unit.xlsx
+++ b/InputData/web-app/BpTPEU/BTU per Total Primary Energy Unit.xlsx
@@ -1,36 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\Projects\2 - Ad Hoc\EPS\eps-us-2.1.0\InputData\web-app\BpTPEU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\web-app\BpTPEU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74672DF1-A86A-4CE1-A4FA-6819B057DE77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BpTPEU-large" sheetId="2" r:id="rId2"/>
     <sheet name="BpTPEU-small" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Source:</t>
   </si>
@@ -53,25 +44,22 @@
     <t>small primary energy output unit</t>
   </si>
   <si>
+    <t>The large primary energy output unit (used in totals graphs) is: quadrillion BTU</t>
+  </si>
+  <si>
+    <t>The small primary energy output unit (used in energy intensity per unit GDP graphs) is: thousand BTU</t>
+  </si>
+  <si>
     <t>BpTPEU BTU per Large Primary Energy Unit</t>
   </si>
   <si>
     <t>BpTPEU BTU per Small Primary Energy Unit</t>
-  </si>
-  <si>
-    <t>The large primary energy output unit (used in totals graphs) is: Mtoe - Million tonnes of oil equivalent - 10^6 toe</t>
-  </si>
-  <si>
-    <t>1 Btu = 2.5219021687207⋅10-8 toe</t>
-  </si>
-  <si>
-    <t>The small primary energy output unit (used in energy intensity per unit GDP graphs) is: Ktoe - 1000 tonnes of oil equivalent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,7 +107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -135,7 +123,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -210,23 +198,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -262,23 +233,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,29 +408,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,32 +433,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -519,39 +463,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <f>39652608749183</f>
-        <v>39652608749183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <f>10^15</f>
+        <v>1000000000000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
     </row>
   </sheetData>
@@ -560,39 +502,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <f>39652608749.183</f>
-        <v>39652608749.182999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <f>10^3</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
     </row>
   </sheetData>

--- a/InputData/web-app/BpTPEU/BTU per Total Primary Energy Unit.xlsx
+++ b/InputData/web-app/BpTPEU/BTU per Total Primary Energy Unit.xlsx
@@ -1,27 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\web-app\BpTPEU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\web-app\BpTPEU\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ACF8EC-DDAD-48C2-8393-9B9BDF10AC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="14100"/>
+    <workbookView xWindow="28680" yWindow="960" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BpTPEU-large" sheetId="2" r:id="rId2"/>
     <sheet name="BpTPEU-small" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Source:</t>
   </si>
@@ -35,31 +49,37 @@
     <t>none needed</t>
   </si>
   <si>
-    <t>For the U.S.:</t>
-  </si>
-  <si>
     <t>large primary energy output unit</t>
   </si>
   <si>
     <t>small primary energy output unit</t>
   </si>
   <si>
-    <t>The large primary energy output unit (used in totals graphs) is: quadrillion BTU</t>
-  </si>
-  <si>
-    <t>The small primary energy output unit (used in energy intensity per unit GDP graphs) is: thousand BTU</t>
-  </si>
-  <si>
     <t>BpTPEU BTU per Large Primary Energy Unit</t>
   </si>
   <si>
     <t>BpTPEU BTU per Small Primary Energy Unit</t>
+  </si>
+  <si>
+    <t>For the EU.:</t>
+  </si>
+  <si>
+    <t>The large primary energy output unit (used in totals graphs) is: TWh</t>
+  </si>
+  <si>
+    <t>The small primary energy output unit (used in energy intensity per unit GDP graphs) is: MWh</t>
+  </si>
+  <si>
+    <t>Relevant Conversion Factors</t>
+  </si>
+  <si>
+    <t>BTU/MWh (pure unit conversion, not a heat rate)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,12 +97,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -97,14 +123,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -123,9 +150,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,9 +190,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,7 +227,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,7 +262,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -408,21 +435,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -443,17 +476,31 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3412000</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -463,13 +510,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <f>About!A16*10^6</f>
+        <v>3412000000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -485,48 +575,9 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
-        <f>10^15</f>
-        <v>1000000000000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4">
-        <f>10^3</f>
-        <v>1000</v>
+      <c r="B2">
+        <f>About!A16</f>
+        <v>3412000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
